--- a/natmiOut/OldD4/LR-pairs_lrc2p/Lipc-Lrp1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Lipc-Lrp1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.297599496761827</v>
+        <v>0.5957213333333333</v>
       </c>
       <c r="H2">
-        <v>0.297599496761827</v>
+        <v>1.787164</v>
       </c>
       <c r="I2">
-        <v>0.2803486319109767</v>
+        <v>0.3868649014012554</v>
       </c>
       <c r="J2">
-        <v>0.2803486319109767</v>
+        <v>0.3983065390716899</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N2">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O2">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P2">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q2">
-        <v>0.9996671418231146</v>
+        <v>2.351118294659555</v>
       </c>
       <c r="R2">
-        <v>0.9996671418231146</v>
+        <v>21.160064651936</v>
       </c>
       <c r="S2">
-        <v>0.002001000136810191</v>
+        <v>0.003126753492294037</v>
       </c>
       <c r="T2">
-        <v>0.002001000136810191</v>
+        <v>0.003312987738966025</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.297599496761827</v>
+        <v>0.5957213333333333</v>
       </c>
       <c r="H3">
-        <v>0.297599496761827</v>
+        <v>1.787164</v>
       </c>
       <c r="I3">
-        <v>0.2803486319109767</v>
+        <v>0.3868649014012554</v>
       </c>
       <c r="J3">
-        <v>0.2803486319109767</v>
+        <v>0.3983065390716899</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N3">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P3">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q3">
-        <v>52.08936894141681</v>
+        <v>110.6866585912458</v>
       </c>
       <c r="R3">
-        <v>52.08936894141681</v>
+        <v>996.1799273212119</v>
       </c>
       <c r="S3">
-        <v>0.1042655400156931</v>
+        <v>0.1472022471547522</v>
       </c>
       <c r="T3">
-        <v>0.1042655400156931</v>
+        <v>0.1559698393793558</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.297599496761827</v>
+        <v>0.5957213333333333</v>
       </c>
       <c r="H4">
-        <v>0.297599496761827</v>
+        <v>1.787164</v>
       </c>
       <c r="I4">
-        <v>0.2803486319109767</v>
+        <v>0.3868649014012554</v>
       </c>
       <c r="J4">
-        <v>0.2803486319109767</v>
+        <v>0.3983065390716899</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N4">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O4">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P4">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q4">
-        <v>34.39366621438662</v>
+        <v>69.90159831641911</v>
       </c>
       <c r="R4">
-        <v>34.39366621438662</v>
+        <v>629.114384847772</v>
       </c>
       <c r="S4">
-        <v>0.06884464630384869</v>
+        <v>0.09296217342583643</v>
       </c>
       <c r="T4">
-        <v>0.06884464630384869</v>
+        <v>0.09849914344269868</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.297599496761827</v>
+        <v>0.5957213333333333</v>
       </c>
       <c r="H5">
-        <v>0.297599496761827</v>
+        <v>1.787164</v>
       </c>
       <c r="I5">
-        <v>0.2803486319109767</v>
+        <v>0.3868649014012554</v>
       </c>
       <c r="J5">
-        <v>0.2803486319109767</v>
+        <v>0.3983065390716899</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N5">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O5">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P5">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q5">
-        <v>40.37035519148053</v>
+        <v>83.26048718021644</v>
       </c>
       <c r="R5">
-        <v>40.37035519148053</v>
+        <v>749.3443846219481</v>
       </c>
       <c r="S5">
-        <v>0.08080798385941379</v>
+        <v>0.1107281669545008</v>
       </c>
       <c r="T5">
-        <v>0.08080798385941379</v>
+        <v>0.1173233068684607</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.297599496761827</v>
+        <v>0.5957213333333333</v>
       </c>
       <c r="H6">
-        <v>0.297599496761827</v>
+        <v>1.787164</v>
       </c>
       <c r="I6">
-        <v>0.2803486319109767</v>
+        <v>0.3868649014012554</v>
       </c>
       <c r="J6">
-        <v>0.2803486319109767</v>
+        <v>0.3983065390716899</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N6">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O6">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P6">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q6">
-        <v>12.20456190877242</v>
+        <v>24.69775698137867</v>
       </c>
       <c r="R6">
-        <v>12.20456190877242</v>
+        <v>148.186541888272</v>
       </c>
       <c r="S6">
-        <v>0.02442946159521093</v>
+        <v>0.03284556037387189</v>
       </c>
       <c r="T6">
-        <v>0.02442946159521093</v>
+        <v>0.02320126164220877</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.23338040964703</v>
+        <v>0.2649473333333333</v>
       </c>
       <c r="H7">
-        <v>0.23338040964703</v>
+        <v>0.7948419999999999</v>
       </c>
       <c r="I7">
-        <v>0.2198521142383887</v>
+        <v>0.1720583404542485</v>
       </c>
       <c r="J7">
-        <v>0.2198521142383887</v>
+        <v>0.1771470140002933</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N7">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O7">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P7">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q7">
-        <v>0.7839486612306656</v>
+        <v>1.045660928467556</v>
       </c>
       <c r="R7">
-        <v>0.7839486612306656</v>
+        <v>9.410948356207999</v>
       </c>
       <c r="S7">
-        <v>0.001569203700657691</v>
+        <v>0.001390625034592224</v>
       </c>
       <c r="T7">
-        <v>0.001569203700657691</v>
+        <v>0.001473452800311126</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.23338040964703</v>
+        <v>0.2649473333333333</v>
       </c>
       <c r="H8">
-        <v>0.23338040964703</v>
+        <v>0.7948419999999999</v>
       </c>
       <c r="I8">
-        <v>0.2198521142383887</v>
+        <v>0.1720583404542485</v>
       </c>
       <c r="J8">
-        <v>0.2198521142383887</v>
+        <v>0.1771470140002933</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N8">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O8">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P8">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q8">
-        <v>40.84898796563579</v>
+        <v>49.22794163713177</v>
       </c>
       <c r="R8">
-        <v>40.84898796563579</v>
+        <v>443.0514747341859</v>
       </c>
       <c r="S8">
-        <v>0.08176604700513229</v>
+        <v>0.06546826622121839</v>
       </c>
       <c r="T8">
-        <v>0.08176604700513229</v>
+        <v>0.06936765684177047</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.23338040964703</v>
+        <v>0.2649473333333333</v>
       </c>
       <c r="H9">
-        <v>0.23338040964703</v>
+        <v>0.7948419999999999</v>
       </c>
       <c r="I9">
-        <v>0.2198521142383887</v>
+        <v>0.1720583404542485</v>
       </c>
       <c r="J9">
-        <v>0.2198521142383887</v>
+        <v>0.1771470140002933</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N9">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O9">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P9">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q9">
-        <v>26.97184638319711</v>
+        <v>31.08876757198511</v>
       </c>
       <c r="R9">
-        <v>26.97184638319711</v>
+        <v>279.798908147866</v>
       </c>
       <c r="S9">
-        <v>0.05398863886270524</v>
+        <v>0.04134496881659359</v>
       </c>
       <c r="T9">
-        <v>0.05398863886270524</v>
+        <v>0.04380753874422354</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.23338040964703</v>
+        <v>0.2649473333333333</v>
       </c>
       <c r="H10">
-        <v>0.23338040964703</v>
+        <v>0.7948419999999999</v>
       </c>
       <c r="I10">
-        <v>0.2198521142383887</v>
+        <v>0.1720583404542485</v>
       </c>
       <c r="J10">
-        <v>0.2198521142383887</v>
+        <v>0.1771470140002933</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N10">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O10">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P10">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q10">
-        <v>31.65882380414141</v>
+        <v>37.03013945631044</v>
       </c>
       <c r="R10">
-        <v>31.65882380414141</v>
+        <v>333.271255106794</v>
       </c>
       <c r="S10">
-        <v>0.06337040412052072</v>
+        <v>0.04924640250052561</v>
       </c>
       <c r="T10">
-        <v>0.06337040412052072</v>
+        <v>0.05217959397007831</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.23338040964703</v>
+        <v>0.2649473333333333</v>
       </c>
       <c r="H11">
-        <v>0.23338040964703</v>
+        <v>0.7948419999999999</v>
       </c>
       <c r="I11">
-        <v>0.2198521142383887</v>
+        <v>0.1720583404542485</v>
       </c>
       <c r="J11">
-        <v>0.2198521142383887</v>
+        <v>0.1771470140002933</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N11">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O11">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P11">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q11">
-        <v>9.570935733508257</v>
+        <v>10.98433862510267</v>
       </c>
       <c r="R11">
-        <v>9.570935733508257</v>
+        <v>65.90603175061599</v>
       </c>
       <c r="S11">
-        <v>0.01915782054937273</v>
+        <v>0.01460807788131872</v>
       </c>
       <c r="T11">
-        <v>0.01915782054937273</v>
+        <v>0.01031877164390985</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.202329925250082</v>
+        <v>0.218721</v>
       </c>
       <c r="H12">
-        <v>0.202329925250082</v>
+        <v>0.6561630000000001</v>
       </c>
       <c r="I12">
-        <v>0.1906015243833117</v>
+        <v>0.1420386905164562</v>
       </c>
       <c r="J12">
-        <v>0.1906015243833117</v>
+        <v>0.1462395245186772</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N12">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O12">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P12">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q12">
-        <v>0.6796469089526298</v>
+        <v>0.8632206297680001</v>
       </c>
       <c r="R12">
-        <v>0.6796469089526298</v>
+        <v>7.768985667912</v>
       </c>
       <c r="S12">
-        <v>0.001360426386843747</v>
+        <v>0.001147997582630431</v>
       </c>
       <c r="T12">
-        <v>0.001360426386843747</v>
+        <v>0.001216374084170879</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.202329925250082</v>
+        <v>0.218721</v>
       </c>
       <c r="H13">
-        <v>0.202329925250082</v>
+        <v>0.6561630000000001</v>
       </c>
       <c r="I13">
-        <v>0.1906015243833117</v>
+        <v>0.1420386905164562</v>
       </c>
       <c r="J13">
-        <v>0.1906015243833117</v>
+        <v>0.1462395245186772</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N13">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O13">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P13">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q13">
-        <v>35.41416648521924</v>
+        <v>40.63896204333101</v>
       </c>
       <c r="R13">
-        <v>35.41416648521924</v>
+        <v>365.750658389979</v>
       </c>
       <c r="S13">
-        <v>0.07088734741516743</v>
+        <v>0.0540457776117937</v>
       </c>
       <c r="T13">
-        <v>0.07088734741516743</v>
+        <v>0.05726482724398893</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.202329925250082</v>
+        <v>0.218721</v>
       </c>
       <c r="H14">
-        <v>0.202329925250082</v>
+        <v>0.6561630000000001</v>
       </c>
       <c r="I14">
-        <v>0.1906015243833117</v>
+        <v>0.1420386905164562</v>
       </c>
       <c r="J14">
-        <v>0.1906015243833117</v>
+        <v>0.1462395245186772</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N14">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O14">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P14">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q14">
-        <v>23.3833322635031</v>
+        <v>25.664596229611</v>
       </c>
       <c r="R14">
-        <v>23.3833322635031</v>
+        <v>230.981366066499</v>
       </c>
       <c r="S14">
-        <v>0.04680563069524905</v>
+        <v>0.03413136041326768</v>
       </c>
       <c r="T14">
-        <v>0.04680563069524905</v>
+        <v>0.03616427673050236</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.202329925250082</v>
+        <v>0.218721</v>
       </c>
       <c r="H15">
-        <v>0.202329925250082</v>
+        <v>0.6561630000000001</v>
       </c>
       <c r="I15">
-        <v>0.1906015243833117</v>
+        <v>0.1420386905164562</v>
       </c>
       <c r="J15">
-        <v>0.1906015243833117</v>
+        <v>0.1462395245186772</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N15">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O15">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P15">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q15">
-        <v>27.44672298538389</v>
+        <v>30.569355162499</v>
       </c>
       <c r="R15">
-        <v>27.44672298538389</v>
+        <v>275.1241964624911</v>
       </c>
       <c r="S15">
-        <v>0.05493918340517241</v>
+        <v>0.04065420197215597</v>
       </c>
       <c r="T15">
-        <v>0.05493918340517241</v>
+        <v>0.04307562876419276</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.202329925250082</v>
+        <v>0.218721</v>
       </c>
       <c r="H16">
-        <v>0.202329925250082</v>
+        <v>0.6561630000000001</v>
       </c>
       <c r="I16">
-        <v>0.1906015243833117</v>
+        <v>0.1420386905164562</v>
       </c>
       <c r="J16">
-        <v>0.1906015243833117</v>
+        <v>0.1462395245186772</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N16">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O16">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P16">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q16">
-        <v>8.297554685343352</v>
+        <v>9.067860763854</v>
       </c>
       <c r="R16">
-        <v>8.297554685343352</v>
+        <v>54.407164583124</v>
       </c>
       <c r="S16">
-        <v>0.01660893648087912</v>
+        <v>0.01205935293660845</v>
       </c>
       <c r="T16">
-        <v>0.01660893648087912</v>
+        <v>0.008518417695822341</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.202298000206881</v>
+        <v>0.327778</v>
       </c>
       <c r="H17">
-        <v>0.202298000206881</v>
+        <v>0.9833339999999999</v>
       </c>
       <c r="I17">
-        <v>0.1905714499299525</v>
+        <v>0.212860941108092</v>
       </c>
       <c r="J17">
-        <v>0.1905714499299525</v>
+        <v>0.2191563629815289</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N17">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O17">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P17">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q17">
-        <v>0.6795396694678975</v>
+        <v>1.293633128890666</v>
       </c>
       <c r="R17">
-        <v>0.6795396694678975</v>
+        <v>11.642698160016</v>
       </c>
       <c r="S17">
-        <v>0.001360211729169564</v>
+        <v>0.001720403398116493</v>
       </c>
       <c r="T17">
-        <v>0.001360211729169564</v>
+        <v>0.001822873270336923</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.202298000206881</v>
+        <v>0.327778</v>
       </c>
       <c r="H18">
-        <v>0.202298000206881</v>
+        <v>0.9833339999999999</v>
       </c>
       <c r="I18">
-        <v>0.1905714499299525</v>
+        <v>0.212860941108092</v>
       </c>
       <c r="J18">
-        <v>0.1905714499299525</v>
+        <v>0.2191563629815289</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N18">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O18">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P18">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q18">
-        <v>35.4085785881567</v>
+        <v>60.90205193209133</v>
       </c>
       <c r="R18">
-        <v>35.4085785881567</v>
+        <v>548.118467388822</v>
       </c>
       <c r="S18">
-        <v>0.07087616230932688</v>
+        <v>0.08099367181952584</v>
       </c>
       <c r="T18">
-        <v>0.07087616230932688</v>
+        <v>0.08581777947421691</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.202298000206881</v>
+        <v>0.327778</v>
       </c>
       <c r="H19">
-        <v>0.202298000206881</v>
+        <v>0.9833339999999999</v>
       </c>
       <c r="I19">
-        <v>0.1905714499299525</v>
+        <v>0.212860941108092</v>
       </c>
       <c r="J19">
-        <v>0.1905714499299525</v>
+        <v>0.2191563629815289</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N19">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O19">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P19">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q19">
-        <v>23.37964267635096</v>
+        <v>38.46128182913133</v>
       </c>
       <c r="R19">
-        <v>23.37964267635096</v>
+        <v>346.151536462182</v>
       </c>
       <c r="S19">
-        <v>0.04679824537258781</v>
+        <v>0.05114967951655328</v>
       </c>
       <c r="T19">
-        <v>0.04679824537258781</v>
+        <v>0.05419623309225267</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.202298000206881</v>
+        <v>0.327778</v>
       </c>
       <c r="H20">
-        <v>0.202298000206881</v>
+        <v>0.9833339999999999</v>
       </c>
       <c r="I20">
-        <v>0.1905714499299525</v>
+        <v>0.212860941108092</v>
       </c>
       <c r="J20">
-        <v>0.1905714499299525</v>
+        <v>0.2191563629815289</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N20">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O20">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P20">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q20">
-        <v>27.44239224777327</v>
+        <v>45.81161432351533</v>
       </c>
       <c r="R20">
-        <v>27.44239224777327</v>
+        <v>412.304528911638</v>
       </c>
       <c r="S20">
-        <v>0.05493051471317605</v>
+        <v>0.06092489067821259</v>
       </c>
       <c r="T20">
-        <v>0.05493051471317605</v>
+        <v>0.06455367086411259</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.202298000206881</v>
+        <v>0.327778</v>
       </c>
       <c r="H21">
-        <v>0.202298000206881</v>
+        <v>0.9833339999999999</v>
       </c>
       <c r="I21">
-        <v>0.1905714499299525</v>
+        <v>0.212860941108092</v>
       </c>
       <c r="J21">
-        <v>0.1905714499299525</v>
+        <v>0.2191563629815289</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N21">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O21">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P21">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q21">
-        <v>8.296245438619394</v>
+        <v>13.589208468572</v>
       </c>
       <c r="R21">
-        <v>8.296245438619394</v>
+        <v>81.53525081143199</v>
       </c>
       <c r="S21">
-        <v>0.0166063158056922</v>
+        <v>0.01807229569568375</v>
       </c>
       <c r="T21">
-        <v>0.0166063158056922</v>
+        <v>0.01276580628060979</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.125925783380529</v>
+        <v>0.1327015</v>
       </c>
       <c r="H22">
-        <v>0.125925783380529</v>
+        <v>0.265403</v>
       </c>
       <c r="I22">
-        <v>0.1186262795373706</v>
+        <v>0.08617712651994786</v>
       </c>
       <c r="J22">
-        <v>0.1186262795373706</v>
+        <v>0.0591505594278106</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N22">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O22">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P22">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q22">
-        <v>0.4229975834085388</v>
+        <v>0.5237296482786666</v>
       </c>
       <c r="R22">
-        <v>0.4229975834085388</v>
+        <v>3.142377889672</v>
       </c>
       <c r="S22">
-        <v>0.0008467000533069789</v>
+        <v>0.0006965083426439719</v>
       </c>
       <c r="T22">
-        <v>0.0008467000533069789</v>
+        <v>0.0004919956338001437</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.125925783380529</v>
+        <v>0.1327015</v>
       </c>
       <c r="H23">
-        <v>0.125925783380529</v>
+        <v>0.265403</v>
       </c>
       <c r="I23">
-        <v>0.1186262795373706</v>
+        <v>0.08617712651994786</v>
       </c>
       <c r="J23">
-        <v>0.1186262795373706</v>
+        <v>0.0591505594278106</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N23">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O23">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P23">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q23">
-        <v>22.04101371513704</v>
+        <v>24.65630287714983</v>
       </c>
       <c r="R23">
-        <v>22.04101371513704</v>
+        <v>147.937817262899</v>
       </c>
       <c r="S23">
-        <v>0.04411875674836221</v>
+        <v>0.03279043053822651</v>
       </c>
       <c r="T23">
-        <v>0.04411875674836221</v>
+        <v>0.02316231933991461</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.125925783380529</v>
+        <v>0.1327015</v>
       </c>
       <c r="H24">
-        <v>0.125925783380529</v>
+        <v>0.265403</v>
       </c>
       <c r="I24">
-        <v>0.1186262795373706</v>
+        <v>0.08617712651994786</v>
       </c>
       <c r="J24">
-        <v>0.1186262795373706</v>
+        <v>0.0591505594278106</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N24">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O24">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P24">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q24">
-        <v>14.5532818721171</v>
+        <v>15.57111761816983</v>
       </c>
       <c r="R24">
-        <v>14.5532818721171</v>
+        <v>93.426705709019</v>
       </c>
       <c r="S24">
-        <v>0.02913081544726455</v>
+        <v>0.02070803774617545</v>
       </c>
       <c r="T24">
-        <v>0.02913081544726455</v>
+        <v>0.01462762688098158</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.125925783380529</v>
+        <v>0.1327015</v>
       </c>
       <c r="H25">
-        <v>0.125925783380529</v>
+        <v>0.265403</v>
       </c>
       <c r="I25">
-        <v>0.1186262795373706</v>
+        <v>0.08617712651994786</v>
       </c>
       <c r="J25">
-        <v>0.1186262795373706</v>
+        <v>0.0591505594278106</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N25">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O25">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P25">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q25">
-        <v>17.08224865348453</v>
+        <v>18.54691266086183</v>
       </c>
       <c r="R25">
-        <v>17.08224865348453</v>
+        <v>111.281475965171</v>
       </c>
       <c r="S25">
-        <v>0.03419296330007462</v>
+        <v>0.02466554918370003</v>
       </c>
       <c r="T25">
-        <v>0.03419296330007462</v>
+        <v>0.01742311148434619</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.125925783380529</v>
+        <v>0.1327015</v>
       </c>
       <c r="H26">
-        <v>0.125925783380529</v>
+        <v>0.265403</v>
       </c>
       <c r="I26">
-        <v>0.1186262795373706</v>
+        <v>0.08617712651994786</v>
       </c>
       <c r="J26">
-        <v>0.1186262795373706</v>
+        <v>0.0591505594278106</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N26">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O26">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P26">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q26">
-        <v>5.164219146540791</v>
+        <v>5.501614957660999</v>
       </c>
       <c r="R26">
-        <v>5.164219146540791</v>
+        <v>22.006459830644</v>
       </c>
       <c r="S26">
-        <v>0.01033704398836228</v>
+        <v>0.007316600709201889</v>
       </c>
       <c r="T26">
-        <v>0.01033704398836228</v>
+        <v>0.00344550608876809</v>
       </c>
     </row>
   </sheetData>
